--- a/biology/Histoire de la zoologie et de la botanique/Léon_Moulé/Léon_Moulé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léon_Moulé/Léon_Moulé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Moul%C3%A9</t>
+          <t>Léon_Moulé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Théophile Moulé, né le 5 avril 1849 à Vitry-le-François où il est décédé en 1923, est un vétérinaire français.
-Diplômé de l'École vétérinaire d'Alfort, helléniste et passionné d'histoire, il publie de nombreux travaux en lien avec l'histoire de la médecine[1].
-Il est nommé chevalier de la Légion d'honneur [2]. Ses insignes lui sont remis le 28 octobre 1923. Il meurt quelque temps après.
+Diplômé de l'École vétérinaire d'Alfort, helléniste et passionné d'histoire, il publie de nombreux travaux en lien avec l'histoire de la médecine.
+Il est nommé chevalier de la Légion d'honneur . Ses insignes lui sont remis le 28 octobre 1923. Il meurt quelque temps après.
 </t>
         </is>
       </c>
